--- a/Resources/Swan_ENGR399_Grade.xlsx
+++ b/Resources/Swan_ENGR399_Grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f4dc847ec8b5479/Documents/CWRU/Spring 2025/ENGR399/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0F4DC847EC8B5479/Documents/CWRU/Spring 2025/ENGR399/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{AA5501AA-51C0-4416-AEBD-5F6EE18FE58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB97C406-F4F0-49EA-9965-56B1D1658133}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{AA5501AA-51C0-4416-AEBD-5F6EE18FE58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698A0405-CE3B-42A4-963B-CD5DECCF76A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{AA1E5637-5A12-4BE7-B88A-559D61691A7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -319,80 +319,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,16 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,6 +429,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BE26D2-83B0-4BE0-862F-6C9DA324F414}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L16" sqref="L16:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,663 +771,655 @@
     <col min="16" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="9">
         <f>C4/D4</f>
         <v>1</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="10">
         <f>IF(COUNTIF(E$4:E$15,"&gt;"&amp;E4)&lt;10,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <f>H4/I4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9">
-        <v>20</v>
-      </c>
-      <c r="N4" s="9">
-        <v>20</v>
-      </c>
-      <c r="O4" s="19">
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9">
         <f>M4/N4</f>
         <v>1</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="10">
         <f>IF(P4&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="9">
         <f t="shared" ref="E5:E15" si="0">C5/D5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F15" si="1">IF(COUNTIF(E$4:E$15,"&gt;"&amp;E5)&lt;10,1,0)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="28">
         <v>0.03</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="L5" s="8" t="s">
+      <c r="J5" s="29"/>
+      <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5">
         <v>19</v>
       </c>
-      <c r="N5" s="9">
-        <v>20</v>
-      </c>
-      <c r="O5" s="19">
-        <f t="shared" ref="O5:O15" si="2">M5/N5</f>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O13" si="2">M5/N5</f>
         <v>0.95</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="10">
         <f t="shared" ref="Q5:Q13" si="3">IF(P5&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="L6" s="8" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="L6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="9">
-        <v>20</v>
-      </c>
-      <c r="N6" s="9">
-        <v>20</v>
-      </c>
-      <c r="O6" s="19">
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9">
-        <v>20</v>
-      </c>
-      <c r="N7" s="9">
-        <v>20</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="8" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="9">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9">
-        <v>20</v>
-      </c>
-      <c r="O8" s="19">
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="9">
-        <v>20</v>
-      </c>
-      <c r="N9" s="9">
-        <v>20</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <v>88</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="6">
         <f>H10/I10</f>
         <v>0.88</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="9">
-        <v>20</v>
-      </c>
-      <c r="N10" s="9">
-        <v>20</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="28">
         <v>0.1</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="L11" s="8" t="s">
+      <c r="J11" s="29"/>
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="9">
-        <v>20</v>
-      </c>
-      <c r="N11" s="9">
-        <v>20</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="L12" s="8" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="L12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="9">
-        <v>20</v>
-      </c>
-      <c r="N12" s="9">
-        <v>20</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="9">
         <v>0.06</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="26">
-        <v>20</v>
-      </c>
-      <c r="O13" s="27">
+      <c r="N13" s="12">
+        <v>20</v>
+      </c>
+      <c r="O13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="13">
         <v>0.06</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="8" t="s">
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="28">
         <f>SUM(E17+I5+I11)+SUM(P4:P13)</f>
         <v>1</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="L15" s="33" t="s">
+      <c r="J15" s="29"/>
+      <c r="L15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="34"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="L16" s="30">
+      <c r="F16" s="38"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="L16" s="17">
         <f>100*(D18*E17+J4*I5+J10*I11+SUMPRODUCT(O4:O13, P4:P13, Q4:Q13))</f>
         <v>92.5</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="36"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="28">
         <v>0.27</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="36"/>
+      <c r="F17" s="29"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="25">
+      <c r="B18" s="11">
         <f>SUMIF(F4:F15, 1, C4:C15)</f>
         <v>40</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="12">
         <f>SUMIF(F4:F15, 1, D4:D15)</f>
         <v>40</v>
       </c>
-      <c r="D18" s="27" cm="1">
+      <c r="D18" s="13" cm="1">
         <f t="array" ref="D18">AVERAGE(LARGE(E4:E15, {1,2,3,4,5,6,7,8,9,10}))</f>
         <v>1</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L16:Q18"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="E17:F18"/>
     <mergeCell ref="H2:J2"/>
@@ -1436,6 +1431,11 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:Q18"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="L15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
